--- a/data/predictions/gender/gay_marr/leveled/leandemocrat.xlsx
+++ b/data/predictions/gender/gay_marr/leveled/leandemocrat.xlsx
@@ -745,13 +745,13 @@
         <v>0.0236713920282277</v>
       </c>
       <c r="G34">
-        <v>0.02908563728306159</v>
+        <v>0.0169264619101024</v>
       </c>
       <c r="I34">
         <v>0.273118841325422</v>
       </c>
       <c r="J34">
-        <v>0.6163538984404704</v>
+        <v>0.5443115573893981</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -765,13 +765,13 @@
         <v>0.01358786877376303</v>
       </c>
       <c r="G35">
-        <v>0.02342764106011531</v>
+        <v>0.03840687604927177</v>
       </c>
       <c r="I35">
         <v>0.270958303091057</v>
       </c>
       <c r="J35">
-        <v>0.7325075688024227</v>
+        <v>0.7721978743582378</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -785,13 +785,13 @@
         <v>0.006935991968139068</v>
       </c>
       <c r="G36">
-        <v>-0.001535684502940043</v>
+        <v>-0.04142795158379174</v>
       </c>
       <c r="I36">
         <v>0.275122102433684</v>
       </c>
       <c r="J36">
-        <v>0.7728476958508649</v>
+        <v>0.7261802340526202</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -805,13 +805,13 @@
         <v>-0.01576771291232261</v>
       </c>
       <c r="G37">
-        <v>-0.009602503746977725</v>
+        <v>0.03242064068868684</v>
       </c>
       <c r="I37">
         <v>0.2783357473921245</v>
       </c>
       <c r="J37">
-        <v>0.8527311292793218</v>
+        <v>0.9322209223436203</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -825,13 +825,13 @@
         <v>-0.04422258186361651</v>
       </c>
       <c r="G38">
-        <v>-0.03245756725035892</v>
+        <v>-0.07014797838151528</v>
       </c>
       <c r="I38">
         <v>0.281692141427887</v>
       </c>
       <c r="J38">
-        <v>0.8818572653671568</v>
+        <v>0.7673158177974554</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -845,13 +845,13 @@
         <v>-0.06217932002642701</v>
       </c>
       <c r="G39">
-        <v>-0.0423695900952189</v>
+        <v>0.001681514124142539</v>
       </c>
       <c r="I39">
         <v>0.2850270891603798</v>
       </c>
       <c r="J39">
-        <v>0.9713905316505238</v>
+        <v>1.003540064498161</v>
       </c>
     </row>
   </sheetData>
